--- a/biology/Zoologie/Hormurus_karschii/Hormurus_karschii.xlsx
+++ b/biology/Zoologie/Hormurus_karschii/Hormurus_karschii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hormurus karschii est une espèce de scorpions de la famille des Hormuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Indonésie aux Moluques et en Nouvelle-Guinée occidentale, en Papouasie-Nouvelle-Guinée en Nouvelle-Guinée orientale, aux Îles Salomon et en Australie au Queensland dans les îles du détroit de Torrès[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Indonésie aux Moluques et en Nouvelle-Guinée occidentale, en Papouasie-Nouvelle-Guinée en Nouvelle-Guinée orientale, aux Îles Salomon et en Australie au Queensland dans les îles du détroit de Torrès,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 70,6 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 70,6 mm.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Keyserling en 1885. Elle est placée dans le genre Liocheles par Koch en 1977[3] puis dans le genre Hormurus par Monod, Harvey et Prendini en 2013[5].
-Hormurus karschii keyensis[6] a été placée en synonymie par Koch en 1977[3].
-Hormurus papuanus[6], placée en synonymie par Giltay en 1931[7], a été relevée de synonymie par Monod, Dupérré et Harms en 2019[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Keyserling en 1885. Elle est placée dans le genre Liocheles par Koch en 1977 puis dans le genre Hormurus par Monod, Harvey et Prendini en 2013.
+Hormurus karschii keyensis a été placée en synonymie par Koch en 1977.
+Hormurus papuanus, placée en synonymie par Giltay en 1931, a été relevée de synonymie par Monod, Dupérré et Harms en 2019.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ferdinand Karsch[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ferdinand Karsch.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Keyserling, 1885 : Die Arachniden Australiens. vol. 2, p. 1-86 (texte intégral).</t>
         </is>
